--- a/view-attendance/Capacity.xlsx
+++ b/view-attendance/Capacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/arth-shishir_sindekar_capgemini_com/Documents/Desktop/WebApp/view-attendance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{CD67D2C4-16A8-4D92-8CB8-7F49A5C7DC97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{081BF6FF-F461-4552-86DB-32E696B45E16}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{CD67D2C4-16A8-4D92-8CB8-7F49A5C7DC97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77D2E701-C1FD-4DF4-8DD1-8691C1FC537D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8243C8CC-0DE0-4C68-8D5E-8D8004904B75}"/>
   </bookViews>
@@ -56,7 +56,7 @@
     <t>February</t>
   </si>
   <si>
-    <t xml:space="preserve"> Utilization</t>
+    <t>Utilization</t>
   </si>
 </sst>
 </file>
@@ -92,8 +92,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -109,6 +110,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -431,10 +436,14 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="9.54296875" customWidth="1"/>
+    <col min="5" max="5" width="10.08984375" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -449,7 +458,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -461,14 +470,13 @@
         <v>2024</v>
       </c>
       <c r="C2">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D2">
-        <v>40</v>
-      </c>
-      <c r="E2">
-        <f>D2/C2*100</f>
-        <v>63.492063492063487</v>
+        <v>50</v>
+      </c>
+      <c r="E2" s="1">
+        <v>59.52</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -482,14 +490,15 @@
         <v>58</v>
       </c>
       <c r="D3">
-        <v>45</v>
-      </c>
-      <c r="E3">
-        <v>75.22</v>
+        <v>53</v>
+      </c>
+      <c r="E3" s="1">
+        <v>91.37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
